--- a/PRACTICAS/PRACTICA_09_PDSeI/PRACTICA_09_PDSeI.xlsx
+++ b/PRACTICAS/PRACTICA_09_PDSeI/PRACTICA_09_PDSeI.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\8vo_CICLO\PDSeI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Procesamiento\PDSeI-2023-SofiaMoreno\PRACTICAS\PRACTICA_09_PDSeI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6DCA1D-F28C-458C-897A-D6ED6671745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622E39C-4CC2-423D-90EA-896659EA8CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{C3064B89-617C-4132-A9D6-640AE55A619E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C3064B89-617C-4132-A9D6-640AE55A619E}"/>
   </bookViews>
   <sheets>
-    <sheet name="CARATULA" sheetId="2" r:id="rId1"/>
-    <sheet name="ENTRENAMIENTO" sheetId="1" r:id="rId2"/>
+    <sheet name="ENTRENAMIENTO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -331,71 +330,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,79 +414,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1350AEBE-A42A-4740-9951-5494D85904A8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1557,54 +1483,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A897DD-BD0A-4756-8CCF-31662CFD848C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>428625</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39583B4-C093-444F-BF43-1601159DBBF2}">
   <dimension ref="A2:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
@@ -1618,163 +1500,163 @@
   <sheetData>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>0.93</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>30</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.9</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.9</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>50</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.76</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>25</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.3</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>0.91</v>
       </c>
       <c r="I8" s="1"/>
@@ -1791,7 +1673,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1"/>
@@ -1804,406 +1686,406 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="23"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="23"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="23"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="23"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="23"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="23"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="23"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="23"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="23"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="A34" s="23"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="23"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="23"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="23"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="23"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="23"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="23"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="23"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="23"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="23"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="23"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="23"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="23"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="23"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="23"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="23"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="23"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="23"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="23"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="A66" s="23"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="23"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="A68" s="23"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="23"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
+      <c r="A70" s="23"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="23"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
+      <c r="A72" s="23"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="23"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
+      <c r="A74" s="23"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="23"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
+      <c r="A76" s="23"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="23"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
+      <c r="A78" s="23"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="23"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
+      <c r="A80" s="23"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="23"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="23"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="23"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="23"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="23"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="23"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="23"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
+      <c r="A90" s="23"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="23"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
+      <c r="A92" s="23"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="23"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
+      <c r="A94" s="23"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
+      <c r="A95" s="23"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
+      <c r="A96" s="23"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
+      <c r="A97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
+      <c r="A98" s="23"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
+      <c r="A99" s="23"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+      <c r="A100" s="23"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
+      <c r="A101" s="23"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
+      <c r="A102" s="23"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
+      <c r="A103" s="23"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="14"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="17"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="18"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="20"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="19"/>
     </row>
     <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="18"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="20"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="19"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="20"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="19"/>
     </row>
     <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="18"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="20"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="19"/>
     </row>
     <row r="113" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="18"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="20"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="19"/>
     </row>
     <row r="114" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="21"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="23"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="22"/>
     </row>
     <row r="116" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="14"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="13"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="16"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="18"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="20"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="19"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="18"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="20"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="19"/>
     </row>
     <row r="121" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="21"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="23"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
